--- a/one-cgiar-back/public/templates/Section 7.3 - Risk assessment - Submission Tool Template.xlsx
+++ b/one-cgiar-back/public/templates/Section 7.3 - Risk assessment - Submission Tool Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar.sharepoint.com/sites/PRMFImplementation/Shared Documents/Online Submissions Tool/6. Full proposal/Excel Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_AA5BC1A2274ABDFFA5F9A50ABABBCE1223C1546F" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{8680E207-F0C5-43D2-96E8-FD4CEED58B79}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="11_AA5BC1A2274ABDFFA5F9A50ABABBCE1223C1546F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C42FE1F2-AB86-45ED-87DA-2133566453E1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="25200" yWindow="-810" windowWidth="15750" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guidance" sheetId="1" r:id="rId1"/>
     <sheet name="Risk management" sheetId="2" r:id="rId2"/>
-    <sheet name="Control lists" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Control lists" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,40 +33,216 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Solomos, Georgios (CGIAR System Organization)</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A5B359A5-708F-48A9-BC13-7949BF4B0027}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>risk: effect of uncertainty on objectives
+An effect is a deviation from the expected. It can be positive, negative or both, and can address, create or result in opportunities and threats</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D24A8504-1611-4D1B-80BA-267E880AFD90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>risk source:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+element which alone or in combination has the potential to give rise to risk
+E</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vent:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+occurrence or change of a particular set of circumstances
+An event can have one or more occurrences, and can have several causes and several 
+consequences.
+An event can also be something that is expected which does not happen, or something that is not 
+expected which does happen.
+An event can be a risk source.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+consequence:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+outcome of an event affecting objectives
+A consequence can be certain or uncertain and can have positive or negative direct or indirect 
+effects on objectives.
+Consequences can be expressed qualitatively or quantitatively.
+Any consequence can escalate through cascading and cumulative effects.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>likelihood:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+chance of something happening
+ In risk management terminology, the word “likelihood” is used to refer to the chance of 
+something happening, whether defined, measured or determined objectively or subjectively, qualitatively or 
+quantitatively, and described using general terms or mathematically (such as a probability or a frequency over a 
+given time period).
+The English term “likelihood” does not have a direct equivalent in some languages; instead, the 
+equivalent of the term “probability” is often used. However, in English, “probability” is often narrowly interpreted 
+as a mathematical term. Therefore, in risk management terminology, “likelihood” is used with the intent that it 
+should have the same broad interpretation as the term “probability” has in many languages other than English</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{C84AB6B3-A3E8-4728-A8E9-C3B3E6213906}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>risk: effect of uncertainty on objectives
+An effect is a deviation from the expected. It can be positive, negative or both, and can address, create or result in opportunities and threats.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4BF95B42-C082-43E7-8369-F6A764C89CA1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>control: measure that maintains and/or modifies risk
+Controls include, but are not limited to, any process, policy, device, practice, or other conditions 
+and/or actions which maintain and/or modify risk.
+Controls may not always exert the intended or assumed modifying effect.
+Controls captured to be further reviewed and adjusted based on the refreshed risk appetite (available in December  2021)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">Likelihood </t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Risk Score</t>
-  </si>
-  <si>
-    <t>Opportunities</t>
-  </si>
-  <si>
-    <t>Top 5 risks to achieving impact</t>
-  </si>
-  <si>
-    <t>Description of risk</t>
-  </si>
-  <si>
-    <t>Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="89">
+  <si>
+    <t>RISK MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Guidance to complete risk management table (section 7.3)</t>
   </si>
   <si>
     <t>Guidance</t>
   </si>
   <si>
-    <t>RISK MANAGEMENT</t>
-  </si>
-  <si>
-    <t>Guidance to complete risk management table (section 7.3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Populate the risk managemet table to identify the most significant risks to achieving impact across the five Impact Areas, their level of likelihood, level of impact and proposed mitigation measurements (50 words per detailed description of risk). </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Top 5 risk to achieve impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, relevant work packages numbers should be in brackets</t>
+    </r>
   </si>
   <si>
     <r>
@@ -149,30 +326,496 @@
     </r>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Top 5 risks to achieving impact</t>
+  </si>
+  <si>
+    <t>Description of risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Likelihood </t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Risk Score</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">In </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REVIEW GENERIC RISKS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Review the generic risks provided (column D)
+Although many of these risks may be applicable to your Initiative, highlight what you see as a preliminary Top 5 based on their potential effect on achieving the Initiative's long-term objectives. In CGIAR/TOC language we want to focus on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Impact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">risk - i.e. consider very large risks in the sphere of interest - i.e. risks which could see absolutely no </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Impact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">achieved, even if these occur after the end of the Initiative delivery period.  (as impacts may only accrue several years after the end of CGIAR's activities)
+To do that, consider how this risk manifest itself at the Initiative and whether it could cause a significant deviation from the expected objectives in delivering </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?
+Then, select the "Top 5 to 10 risks"
+Everything else will be categorized as "below Top 10" </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT FINAL TOP 5 RISKS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider any other risks not featured in the original list provided that you may wish to include within the Top 5, looking at:
+i)  key </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assumptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> made
+ii) critical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dependencies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+as these may potential sources of risk
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Top 5 risk to achieve impact</t>
+      <t>Adjust final Top 5</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, relevant work packages numbers should be in brackets</t>
+      <t xml:space="preserve"> by replacing/adding any new risks</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ANALYSE TOP 5 RISKS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For each of the Top 5 risks provide a more detailed  description of how the risk may manifest itself at your Initiative (try to be specific) providing the key sources and potential Impact on Initiative’s objectives.
+Rate risk likelihood 
+(1 for lowest likelihood to 5 for highest likelihood)
+Rate potential risk impact on Initiative's objectives
+(1 for lowest impact to 5 for highest impact)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSIDER OPPORTUNITIES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider whether there may be any opportunities arising from the Top5 risks. Opportunities should have a positive impact on Initiative’s objectives</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SET OUT CONTROLS/MITIGATIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Taking into account the risk sources and consequences,  consider the key controls
+in place and working, and 
+to be taken</t>
+    </r>
+  </si>
+  <si>
+    <t>Risk appetite categories</t>
+  </si>
+  <si>
+    <t>Risk Themes</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Generic risks</t>
+  </si>
+  <si>
+    <t>Preliminary Top 5</t>
+  </si>
+  <si>
+    <t>Final Top 5</t>
+  </si>
+  <si>
+    <t>Detailed description of risk</t>
+  </si>
+  <si>
+    <t>Likelihood 5x5 
+scale</t>
+  </si>
+  <si>
+    <t>Impact
+5x5 scale</t>
+  </si>
+  <si>
+    <t>Risk score</t>
+  </si>
+  <si>
+    <t>a) Existing controls / mitigation actions or mechanisms</t>
+  </si>
+  <si>
+    <t>b)Further controls / mitigation actions or mechanisms to be taken</t>
+  </si>
+  <si>
+    <t>Strategic/Programmatic</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Failure to articulate a value proposition for the Initiative that outlines clearly the pathway from research to impact</t>
+  </si>
+  <si>
+    <t>Within Top 5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>For each risk, list 2-3 bullet points on key controls/mitigations in place and working, if any</t>
+  </si>
+  <si>
+    <t>For each risk, list 2-3 bullet points on key controls/mitigations to be taken</t>
+  </si>
+  <si>
+    <t>Failure to specify research questions and mismatch with CGIAR’s core strengths and capabilities</t>
+  </si>
+  <si>
+    <t>Below Top 10</t>
+  </si>
+  <si>
+    <t>Poor strategic positioning of the Initiative or alignment with other Initiatives (including due to lack of portfolio cohesion)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Influencing and advancing policy and regulatory environment implications not adequately understood or accounted for by the Initiative, hindering the uptake of innovations</t>
+  </si>
+  <si>
+    <t>Topics that could benefit multiple Initiatives are not embedded throughout the entire portfolio (i.e. digital technologies, foresights and trade-offs dialogue) impacting Initiative's efficiency and decision making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inappropriate geographic targeting </t>
+  </si>
+  <si>
+    <t>Within Top 5 to 10</t>
+  </si>
+  <si>
+    <t>Failure to attract, engage, develop and retain talent</t>
+  </si>
+  <si>
+    <t>new opportunity</t>
+  </si>
+  <si>
+    <t>Cohesion</t>
+  </si>
+  <si>
+    <t>new risk</t>
+  </si>
+  <si>
+    <t>Unable to plan for unexpected changes, emerging opportunities, and synergies with other Initiatives</t>
+  </si>
+  <si>
+    <t>Conflicting intended or unintended consequences of technologies/innovations for natural resources, GHG emissions, and social and economic aspects impacting objectives and reputation</t>
+  </si>
+  <si>
+    <t>Legacy work</t>
+  </si>
+  <si>
+    <t>Initiative's dependency on legacy work such as valued elements developed through the CRPs (infrastructure, relationships, processes, tools, data and innovations) that are not carried forward</t>
+  </si>
+  <si>
+    <t>Unclear accountability while in transition</t>
+  </si>
+  <si>
+    <t>Lack of learning from prior CGIAR evaluations and other assessments</t>
+  </si>
+  <si>
+    <t>Fit for purpose partnerships</t>
+  </si>
+  <si>
+    <t>Failure to identify and operationalise mission critical partnerships (incl. scaling and research) or partnerships lost (i.e. non-One CGIAR partners)</t>
+  </si>
+  <si>
+    <t>Lack of sense of ownership of the Research and Innovation Strategy by public, private, and civil society stakeholders involved in foresight and priority-setting processes</t>
+  </si>
+  <si>
+    <t>Inappropriate balance between private and public goods generated by the portfolio may affect Initiative objectives</t>
+  </si>
+  <si>
+    <t>Unable to incentivize right behaviours by farmers, value chain actors, and policy makers needed for adoption</t>
+  </si>
+  <si>
+    <t>Capability, and capacity constraints within and across the regions may hinder the uptake of innovations</t>
+  </si>
+  <si>
+    <t>Lack of meaningful partner engagement in Initiative design and delivery</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Talent growth</t>
+  </si>
+  <si>
+    <t>Lack of viable career paths for junior and mid-level scientists</t>
+  </si>
+  <si>
+    <t>Unable to tap into new ideas and approaches and have the right balance of innovations to attract new funders</t>
+  </si>
+  <si>
+    <t>Operational</t>
+  </si>
+  <si>
+    <t>Lack of a systematic and integrated approach for monitoring and evaluation at the outcome level impacts Initiative's objectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of capacity and/or effective systems to effectively operationalise theory of change </t>
+  </si>
+  <si>
+    <t>Reorganization (One CGIAR or other i.e. institutional or programmatic changes) impacts Initiative's execution</t>
+  </si>
+  <si>
+    <t>Business interruption or delays due to pandemic, war, natural disaster or other incident affecting the Initiative or key dependencies</t>
+  </si>
+  <si>
+    <t>Data management and systems not fit for purpose or outdated affecting Initiative's efficiency</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Funding uncertainty, budget insecurity or delay due to geopolitical events /disasters shifting funders' priorities</t>
+  </si>
+  <si>
+    <t>Initiative relies on assumption that increase in funding would result from One CGIAR transition</t>
+  </si>
+  <si>
+    <t>Initiative relies on assumption of stable funding for 3 years</t>
+  </si>
+  <si>
+    <t>Initiative relies on assumption that pooled funding will be the main source compared to bilateral</t>
+  </si>
+  <si>
+    <t>Ethical and Legal</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Inability to move genetic material between countries that do not have developed systems to accept it</t>
+  </si>
+  <si>
+    <t>Genetically enhanced plant materials not widely accepted</t>
+  </si>
+  <si>
+    <t>Unable to achieve a smooth transition of host-country agreements changes</t>
+  </si>
+  <si>
+    <t>Ethical</t>
+  </si>
+  <si>
+    <t>Ethical/behavioural (i.e. failure to protect children and vulnerable adults), financial irregularity, data privacy incident leading to reputational event affecting Initiative</t>
   </si>
   <si>
     <t>Rating</t>
@@ -182,7 +825,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,8 +871,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +972,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,10 +1107,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,6 +1118,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -435,16 +1252,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,6 +1342,591 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>724657</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>268487</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>760868</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913F788F-6695-4B0B-BB80-82E6AA30156C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20289007" y="57955"/>
+          <a:ext cx="1359930" cy="702913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3471035</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>282549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Right 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{918017D3-28A2-4D40-A02B-1C528487EA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15447135" y="59087"/>
+          <a:ext cx="462764" cy="702913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5856111</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>745947</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>702913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Right 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE437036-531A-4F75-A136-89E31D4EB8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11974336" y="0"/>
+          <a:ext cx="747711" cy="702913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2122703</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>751580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Right 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{851E39A3-86B3-4314-8415-034F722A6778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23506328" y="51842"/>
+          <a:ext cx="460496" cy="702913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -837,85 +2242,83 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1">
+      <c r="A1" s="34"/>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="35"/>
+      <c r="B2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="35"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="65.25" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A5" s="35"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A6" s="35"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A7" s="36"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -937,182 +2340,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9345AE7F-DBC6-4438-BBC8-DEDA60DA6F6C}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <f>D2*E2</f>
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F6" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="56"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <f>I2*J2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K6" si="0">I3*J3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
+      <c r="G6" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1121,7 +2457,7 @@
           <x14:formula1>
             <xm:f>'Control lists'!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:J6</xm:sqref>
+          <xm:sqref>D2:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1130,6 +2466,2118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2628122-AA84-492F-A5FC-6974E6DB9F2F}">
+  <dimension ref="A1:M139"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="30" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="79.140625" customWidth="1"/>
+    <col min="5" max="5" width="85" customWidth="1"/>
+    <col min="6" max="6" width="54.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="16" style="31" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" style="31" customWidth="1"/>
+    <col min="11" max="11" width="34.5703125" customWidth="1"/>
+    <col min="12" max="12" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="202.5" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="52"/>
+    </row>
+    <row r="2" spans="1:13" s="16" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30">
+      <c r="A3" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="24">
+        <f>H3*I3</f>
+        <v>20</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="26">
+        <f t="shared" ref="J4:J7" si="0">H4*I4</f>
+        <v>15</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="60">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="18">
+        <v>3</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="18">
+        <v>4</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" ht="30">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="18">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" ht="45">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="18">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" ht="30">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="18">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" ht="45">
+      <c r="A10" s="53"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18">
+        <v>8</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" ht="45">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="18">
+        <v>9</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="18">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="18">
+        <v>11</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="18">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" ht="45">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="18">
+        <v>13</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" ht="30">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="18">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+    </row>
+    <row r="17" spans="1:13" ht="30">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="18">
+        <v>15</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+    </row>
+    <row r="18" spans="1:13" ht="30">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="18">
+        <v>16</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="18">
+        <v>17</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="18">
+        <v>18</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="18">
+        <v>19</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" spans="1:13" ht="30">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="18">
+        <v>20</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+    </row>
+    <row r="23" spans="1:13" ht="30">
+      <c r="A23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="18">
+        <v>21</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+    </row>
+    <row r="24" spans="1:13" ht="30">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="18">
+        <v>22</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+    </row>
+    <row r="25" spans="1:13" ht="30">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="18">
+        <v>23</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+    </row>
+    <row r="26" spans="1:13" ht="30">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="18">
+        <v>24</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" ht="30">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="18">
+        <v>25</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+    </row>
+    <row r="28" spans="1:13" ht="30">
+      <c r="A28" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="18">
+        <v>26</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+    </row>
+    <row r="29" spans="1:13" ht="30">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="18">
+        <v>27</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="18">
+        <v>28</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:13" ht="30">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="18">
+        <v>29</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="1:13" ht="30">
+      <c r="A32" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="18">
+        <v>30</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="18">
+        <v>31</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="18">
+        <v>32</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" ht="30">
+      <c r="B35" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27"/>
+    </row>
+    <row r="49" spans="5:13">
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+    </row>
+    <row r="50" spans="5:13">
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+    </row>
+    <row r="51" spans="5:13">
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+    </row>
+    <row r="52" spans="5:13">
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="5:13">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+    </row>
+    <row r="54" spans="5:13">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+    </row>
+    <row r="55" spans="5:13">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+    </row>
+    <row r="56" spans="5:13">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+    </row>
+    <row r="57" spans="5:13">
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+    </row>
+    <row r="58" spans="5:13">
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+    </row>
+    <row r="59" spans="5:13">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+    </row>
+    <row r="60" spans="5:13">
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="5:13">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+    </row>
+    <row r="62" spans="5:13">
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+    </row>
+    <row r="63" spans="5:13">
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+    </row>
+    <row r="64" spans="5:13">
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+    </row>
+    <row r="65" spans="5:13">
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+    </row>
+    <row r="66" spans="5:13">
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+    </row>
+    <row r="67" spans="5:13">
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+    </row>
+    <row r="68" spans="5:13">
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+    </row>
+    <row r="69" spans="5:13">
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+    </row>
+    <row r="70" spans="5:13">
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+    </row>
+    <row r="71" spans="5:13">
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+    </row>
+    <row r="72" spans="5:13">
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+    </row>
+    <row r="73" spans="5:13">
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+    </row>
+    <row r="74" spans="5:13">
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+    </row>
+    <row r="75" spans="5:13">
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+    </row>
+    <row r="76" spans="5:13">
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+    </row>
+    <row r="77" spans="5:13">
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="27"/>
+      <c r="M77" s="27"/>
+    </row>
+    <row r="78" spans="5:13">
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="27"/>
+    </row>
+    <row r="79" spans="5:13">
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
+      <c r="M79" s="27"/>
+    </row>
+    <row r="80" spans="5:13">
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="27"/>
+    </row>
+    <row r="81" spans="5:13">
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+    </row>
+    <row r="82" spans="5:13">
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+    </row>
+    <row r="83" spans="5:13">
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+    </row>
+    <row r="84" spans="5:13">
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="27"/>
+    </row>
+    <row r="85" spans="5:13">
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="27"/>
+    </row>
+    <row r="86" spans="5:13">
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+    </row>
+    <row r="87" spans="5:13">
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+    </row>
+    <row r="88" spans="5:13">
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="27"/>
+    </row>
+    <row r="89" spans="5:13">
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+    </row>
+    <row r="90" spans="5:13">
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+    </row>
+    <row r="91" spans="5:13">
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+    </row>
+    <row r="92" spans="5:13">
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="27"/>
+    </row>
+    <row r="93" spans="5:13">
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+    </row>
+    <row r="94" spans="5:13">
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="27"/>
+      <c r="M94" s="27"/>
+    </row>
+    <row r="95" spans="5:13">
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+    </row>
+    <row r="96" spans="5:13">
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+    </row>
+    <row r="97" spans="5:13">
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+    </row>
+    <row r="98" spans="5:13">
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="27"/>
+    </row>
+    <row r="99" spans="5:13">
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+    </row>
+    <row r="100" spans="5:13">
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+    </row>
+    <row r="101" spans="5:13">
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+    </row>
+    <row r="102" spans="5:13">
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+    </row>
+    <row r="103" spans="5:13">
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
+    </row>
+    <row r="104" spans="5:13">
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="27"/>
+    </row>
+    <row r="105" spans="5:13">
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="27"/>
+      <c r="M105" s="27"/>
+    </row>
+    <row r="106" spans="5:13">
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="27"/>
+    </row>
+    <row r="107" spans="5:13">
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+    </row>
+    <row r="108" spans="5:13">
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="27"/>
+    </row>
+    <row r="109" spans="5:13">
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+    </row>
+    <row r="110" spans="5:13">
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="27"/>
+    </row>
+    <row r="111" spans="5:13">
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="27"/>
+      <c r="M111" s="27"/>
+    </row>
+    <row r="112" spans="5:13">
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="27"/>
+    </row>
+    <row r="113" spans="5:13">
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
+      <c r="J113" s="28"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+    </row>
+    <row r="114" spans="5:13">
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="27"/>
+    </row>
+    <row r="115" spans="5:13">
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="27"/>
+      <c r="M115" s="27"/>
+    </row>
+    <row r="116" spans="5:13">
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="27"/>
+    </row>
+    <row r="117" spans="5:13">
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="27"/>
+      <c r="M117" s="27"/>
+    </row>
+    <row r="118" spans="5:13">
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="28"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="27"/>
+    </row>
+    <row r="119" spans="5:13">
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="28"/>
+      <c r="I119" s="28"/>
+      <c r="J119" s="28"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="27"/>
+    </row>
+    <row r="120" spans="5:13">
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="27"/>
+    </row>
+    <row r="121" spans="5:13">
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27"/>
+    </row>
+    <row r="122" spans="5:13">
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="28"/>
+      <c r="I122" s="28"/>
+      <c r="J122" s="28"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="27"/>
+    </row>
+    <row r="123" spans="5:13">
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="27"/>
+      <c r="M123" s="27"/>
+    </row>
+    <row r="124" spans="5:13">
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27"/>
+      <c r="H124" s="28"/>
+      <c r="I124" s="28"/>
+      <c r="J124" s="28"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="27"/>
+    </row>
+    <row r="125" spans="5:13">
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27"/>
+      <c r="H125" s="28"/>
+      <c r="I125" s="28"/>
+      <c r="J125" s="28"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="27"/>
+      <c r="M125" s="27"/>
+    </row>
+    <row r="126" spans="5:13">
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="28"/>
+      <c r="I126" s="28"/>
+      <c r="J126" s="28"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="27"/>
+    </row>
+    <row r="127" spans="5:13">
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="28"/>
+      <c r="I127" s="28"/>
+      <c r="J127" s="28"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="27"/>
+    </row>
+    <row r="128" spans="5:13">
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="28"/>
+      <c r="I128" s="28"/>
+      <c r="J128" s="28"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="27"/>
+    </row>
+    <row r="129" spans="5:13">
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="27"/>
+      <c r="M129" s="27"/>
+    </row>
+    <row r="130" spans="5:13">
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="27"/>
+    </row>
+    <row r="131" spans="5:13">
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27"/>
+      <c r="H131" s="28"/>
+      <c r="I131" s="28"/>
+      <c r="J131" s="28"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="27"/>
+      <c r="M131" s="27"/>
+    </row>
+    <row r="132" spans="5:13">
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27"/>
+      <c r="H132" s="28"/>
+      <c r="I132" s="28"/>
+      <c r="J132" s="28"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="27"/>
+    </row>
+    <row r="133" spans="5:13">
+      <c r="E133" s="27"/>
+      <c r="F133" s="27"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="27"/>
+      <c r="M133" s="27"/>
+    </row>
+    <row r="134" spans="5:13">
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
+      <c r="G134" s="27"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="27"/>
+    </row>
+    <row r="135" spans="5:13">
+      <c r="E135" s="27"/>
+      <c r="F135" s="27"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="27"/>
+      <c r="M135" s="27"/>
+    </row>
+    <row r="136" spans="5:13">
+      <c r="E136" s="27"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="27"/>
+      <c r="H136" s="28"/>
+      <c r="I136" s="28"/>
+      <c r="J136" s="28"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="27"/>
+    </row>
+    <row r="137" spans="5:13">
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="27"/>
+      <c r="M137" s="27"/>
+    </row>
+    <row r="138" spans="5:13">
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
+      <c r="G138" s="27"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="27"/>
+    </row>
+    <row r="139" spans="5:13">
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E35" xr:uid="{BF10E22D-8D6A-4BA3-A194-65AE25535B5D}">
+      <formula1>"Within Top 5, Within Top 5 to 10, Below Top 10"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D2F751-A452-477A-870A-A08EDB5461D0}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1137,35 +4585,35 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1178,15 +4626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC391CE9C050B2449C4FA40F8913423D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5074f59da554e3220cc55258e77c0ebc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ca99b3b-2006-4525-a392-0eea832c2707" xmlns:ns3="1dccc405-6d75-4c17-b17b-84e9890663ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1ac3b8163f59360d89f4da31268ff34a" ns2:_="" ns3:_="">
     <xsd:import namespace="5ca99b3b-2006-4525-a392-0eea832c2707"/>
@@ -1409,7 +4848,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="5ca99b3b-2006-4525-a392-0eea832c2707" xsi:nil="true"/>
@@ -1417,46 +4856,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67860D9C-3338-4D52-ACBB-0E4CF3404314}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E253FC-430A-47CD-B957-582A99866F13}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3E253FC-430A-47CD-B957-582A99866F13}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5ca99b3b-2006-4525-a392-0eea832c2707"/>
-    <ds:schemaRef ds:uri="1dccc405-6d75-4c17-b17b-84e9890663ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C4E44-AF34-4AEB-9C18-763480FB027B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C4E44-AF34-4AEB-9C18-763480FB027B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1dccc405-6d75-4c17-b17b-84e9890663ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5ca99b3b-2006-4525-a392-0eea832c2707"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67860D9C-3338-4D52-ACBB-0E4CF3404314}"/>
 </file>